--- a/biology/Botanique/Parc_de_l'Exposition_(Trois-Rivières)/Parc_de_l'Exposition_(Trois-Rivières).xlsx
+++ b/biology/Botanique/Parc_de_l'Exposition_(Trois-Rivières)/Parc_de_l'Exposition_(Trois-Rivières).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Exposition_(Trois-Rivi%C3%A8res)</t>
+          <t>Parc_de_l'Exposition_(Trois-Rivières)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de l'Exposition de Trois-Rivières est un complexe récréatif urbain dédié aux sports et aux divertissements, situé à Trois-Rivières, en Mauricie, au Québec, Canada[1].
+Le parc de l'Exposition de Trois-Rivières est un complexe récréatif urbain dédié aux sports et aux divertissements, situé à Trois-Rivières, en Mauricie, au Québec, Canada.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Exposition_(Trois-Rivi%C3%A8res)</t>
+          <t>Parc_de_l'Exposition_(Trois-Rivières)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières expositions agricoles sur les lieux datent de 1896. La ville y aménage officiellement en 1938 un grand parc récréatif[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières expositions agricoles sur les lieux datent de 1896. La ville y aménage officiellement en 1938 un grand parc récréatif.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Exposition_(Trois-Rivi%C3%A8res)</t>
+          <t>Parc_de_l'Exposition_(Trois-Rivières)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Principales installations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bâtisse industrielle de Trois-Rivières
 Hippodrome de Trois-Rivières
